--- a/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Dkk4-Kremen2.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Dkk4-Kremen2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="25">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -74,9 +74,6 @@
   </si>
   <si>
     <t>Edge total expression derived specificity</t>
-  </si>
-  <si>
-    <t>ECs</t>
   </si>
   <si>
     <t>Inflammatory-Mac</t>
@@ -449,7 +446,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T7"/>
+  <dimension ref="A1:T3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -522,13 +519,13 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C2" t="s">
         <v>22</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>23</v>
-      </c>
-      <c r="D2" t="s">
-        <v>20</v>
       </c>
       <c r="E2">
         <v>1</v>
@@ -537,46 +534,46 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G2">
-        <v>0.016035</v>
+        <v>0.047385</v>
       </c>
       <c r="H2">
-        <v>0.048105</v>
+        <v>0.142155</v>
       </c>
       <c r="I2">
-        <v>0.2528382213812677</v>
+        <v>1</v>
       </c>
       <c r="J2">
-        <v>0.2528382213812677</v>
+        <v>1</v>
       </c>
       <c r="K2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L2">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M2">
-        <v>0.2471363333333333</v>
+        <v>0.03371666666666667</v>
       </c>
       <c r="N2">
-        <v>0.741409</v>
+        <v>0.10115</v>
       </c>
       <c r="O2">
-        <v>0.3260875684472104</v>
+        <v>0.5286097276732288</v>
       </c>
       <c r="P2">
-        <v>0.3260875684472104</v>
+        <v>0.5286097276732288</v>
       </c>
       <c r="Q2">
-        <v>0.003962831105</v>
+        <v>0.00159766425</v>
       </c>
       <c r="R2">
-        <v>0.035665479945</v>
+        <v>0.01437897825</v>
       </c>
       <c r="S2">
-        <v>0.08244740082073508</v>
+        <v>0.5286097276732288</v>
       </c>
       <c r="T2">
-        <v>0.08244740082073508</v>
+        <v>0.5286097276732288</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -584,10 +581,10 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C3" t="s">
         <v>22</v>
-      </c>
-      <c r="C3" t="s">
-        <v>23</v>
       </c>
       <c r="D3" t="s">
         <v>24</v>
@@ -599,16 +596,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G3">
-        <v>0.016035</v>
+        <v>0.047385</v>
       </c>
       <c r="H3">
-        <v>0.048105</v>
+        <v>0.142155</v>
       </c>
       <c r="I3">
-        <v>0.2528382213812677</v>
+        <v>1</v>
       </c>
       <c r="J3">
-        <v>0.2528382213812677</v>
+        <v>1</v>
       </c>
       <c r="K3">
         <v>1</v>
@@ -617,276 +614,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M3">
-        <v>0.03371666666666667</v>
+        <v>0.030067</v>
       </c>
       <c r="N3">
-        <v>0.10115</v>
+        <v>0.090201</v>
       </c>
       <c r="O3">
-        <v>0.04448793789721373</v>
+        <v>0.4713902723267712</v>
       </c>
       <c r="P3">
-        <v>0.04448793789721373</v>
+        <v>0.4713902723267713</v>
       </c>
       <c r="Q3">
-        <v>0.00054064675</v>
+        <v>0.001424724795</v>
       </c>
       <c r="R3">
-        <v>0.00486582075</v>
+        <v>0.012822523155</v>
       </c>
       <c r="S3">
-        <v>0.01124825109085181</v>
+        <v>0.4713902723267712</v>
       </c>
       <c r="T3">
-        <v>0.01124825109085181</v>
-      </c>
-    </row>
-    <row r="4" spans="1:20">
-      <c r="A4" t="s">
-        <v>20</v>
-      </c>
-      <c r="B4" t="s">
-        <v>22</v>
-      </c>
-      <c r="C4" t="s">
-        <v>23</v>
-      </c>
-      <c r="D4" t="s">
-        <v>25</v>
-      </c>
-      <c r="E4">
-        <v>1</v>
-      </c>
-      <c r="F4">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G4">
-        <v>0.016035</v>
-      </c>
-      <c r="H4">
-        <v>0.048105</v>
-      </c>
-      <c r="I4">
-        <v>0.2528382213812677</v>
-      </c>
-      <c r="J4">
-        <v>0.2528382213812677</v>
-      </c>
-      <c r="K4">
-        <v>3</v>
-      </c>
-      <c r="L4">
-        <v>1</v>
-      </c>
-      <c r="M4">
-        <v>0.4770303333333333</v>
-      </c>
-      <c r="N4">
-        <v>1.431091</v>
-      </c>
-      <c r="O4">
-        <v>0.6294244936555758</v>
-      </c>
-      <c r="P4">
-        <v>0.6294244936555758</v>
-      </c>
-      <c r="Q4">
-        <v>0.007649181394999999</v>
-      </c>
-      <c r="R4">
-        <v>0.06884263255499999</v>
-      </c>
-      <c r="S4">
-        <v>0.1591425694696808</v>
-      </c>
-      <c r="T4">
-        <v>0.1591425694696808</v>
-      </c>
-    </row>
-    <row r="5" spans="1:20">
-      <c r="A5" t="s">
-        <v>21</v>
-      </c>
-      <c r="B5" t="s">
-        <v>22</v>
-      </c>
-      <c r="C5" t="s">
-        <v>23</v>
-      </c>
-      <c r="D5" t="s">
-        <v>20</v>
-      </c>
-      <c r="E5">
-        <v>1</v>
-      </c>
-      <c r="F5">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G5">
-        <v>0.047385</v>
-      </c>
-      <c r="H5">
-        <v>0.142155</v>
-      </c>
-      <c r="I5">
-        <v>0.7471617786187322</v>
-      </c>
-      <c r="J5">
-        <v>0.7471617786187322</v>
-      </c>
-      <c r="K5">
-        <v>2</v>
-      </c>
-      <c r="L5">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="M5">
-        <v>0.2471363333333333</v>
-      </c>
-      <c r="N5">
-        <v>0.741409</v>
-      </c>
-      <c r="O5">
-        <v>0.3260875684472104</v>
-      </c>
-      <c r="P5">
-        <v>0.3260875684472104</v>
-      </c>
-      <c r="Q5">
-        <v>0.011710555155</v>
-      </c>
-      <c r="R5">
-        <v>0.105394996395</v>
-      </c>
-      <c r="S5">
-        <v>0.2436401676264753</v>
-      </c>
-      <c r="T5">
-        <v>0.2436401676264753</v>
-      </c>
-    </row>
-    <row r="6" spans="1:20">
-      <c r="A6" t="s">
-        <v>21</v>
-      </c>
-      <c r="B6" t="s">
-        <v>22</v>
-      </c>
-      <c r="C6" t="s">
-        <v>23</v>
-      </c>
-      <c r="D6" t="s">
-        <v>24</v>
-      </c>
-      <c r="E6">
-        <v>1</v>
-      </c>
-      <c r="F6">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G6">
-        <v>0.047385</v>
-      </c>
-      <c r="H6">
-        <v>0.142155</v>
-      </c>
-      <c r="I6">
-        <v>0.7471617786187322</v>
-      </c>
-      <c r="J6">
-        <v>0.7471617786187322</v>
-      </c>
-      <c r="K6">
-        <v>1</v>
-      </c>
-      <c r="L6">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M6">
-        <v>0.03371666666666667</v>
-      </c>
-      <c r="N6">
-        <v>0.10115</v>
-      </c>
-      <c r="O6">
-        <v>0.04448793789721373</v>
-      </c>
-      <c r="P6">
-        <v>0.04448793789721373</v>
-      </c>
-      <c r="Q6">
-        <v>0.00159766425</v>
-      </c>
-      <c r="R6">
-        <v>0.01437897825</v>
-      </c>
-      <c r="S6">
-        <v>0.03323968680636191</v>
-      </c>
-      <c r="T6">
-        <v>0.03323968680636191</v>
-      </c>
-    </row>
-    <row r="7" spans="1:20">
-      <c r="A7" t="s">
-        <v>21</v>
-      </c>
-      <c r="B7" t="s">
-        <v>22</v>
-      </c>
-      <c r="C7" t="s">
-        <v>23</v>
-      </c>
-      <c r="D7" t="s">
-        <v>25</v>
-      </c>
-      <c r="E7">
-        <v>1</v>
-      </c>
-      <c r="F7">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G7">
-        <v>0.047385</v>
-      </c>
-      <c r="H7">
-        <v>0.142155</v>
-      </c>
-      <c r="I7">
-        <v>0.7471617786187322</v>
-      </c>
-      <c r="J7">
-        <v>0.7471617786187322</v>
-      </c>
-      <c r="K7">
-        <v>3</v>
-      </c>
-      <c r="L7">
-        <v>1</v>
-      </c>
-      <c r="M7">
-        <v>0.4770303333333333</v>
-      </c>
-      <c r="N7">
-        <v>1.431091</v>
-      </c>
-      <c r="O7">
-        <v>0.6294244936555758</v>
-      </c>
-      <c r="P7">
-        <v>0.6294244936555758</v>
-      </c>
-      <c r="Q7">
-        <v>0.022604082345</v>
-      </c>
-      <c r="R7">
-        <v>0.203436741105</v>
-      </c>
-      <c r="S7">
-        <v>0.470281924185895</v>
-      </c>
-      <c r="T7">
-        <v>0.470281924185895</v>
+        <v>0.4713902723267713</v>
       </c>
     </row>
   </sheetData>
